--- a/电商项目/TP商城测试分析.xlsx
+++ b/电商项目/TP商城测试分析.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册功能" sheetId="1" r:id="rId1"/>
+    <sheet name="banner图轮播功能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +206,70 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示1-5张banner图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动轮播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3秒切换1张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示1-5张banner图片，自动轮播，3秒切换1张，如果只有1张，则不切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果只有1张，则不切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标悬停在图片上则停止轮播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击后网页跳转到图片对应商品的信息详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实心为当前图，可以点击跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片可以点击左右切换，每次切换一张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚心为未选中的图，点击会变为实心，再次点击才会跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片可以点击右切换，每次切换一张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片可以点击左切换，每次切换一张图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +301,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +408,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,7 +430,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -669,32 +760,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -727,7 +818,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -748,24 +839,24 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -784,16 +875,16 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,16 +903,16 @@
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -840,22 +931,22 @@
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -874,36 +965,31 @@
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A7"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="J1:L1"/>
@@ -913,6 +999,132 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+    <col min="2" max="2" width="64.75" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/电商项目/TP商城测试分析.xlsx
+++ b/电商项目/TP商城测试分析.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册功能" sheetId="1" r:id="rId1"/>
     <sheet name="banner图轮播功能" sheetId="2" r:id="rId2"/>
+    <sheet name="购物车" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +271,213 @@
   </si>
   <si>
     <t>图片可以点击左切换，每次切换一张图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车没有商品，提示马上去购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车有商品，显示购物车内商品内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个商品数量最小为1，最大为200，不在范围内的提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车商品类型数量最小为0（购物车为空），最大为20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为1</t>
+  </si>
+  <si>
+    <t>商品数量为2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为0 ，提示【商品数量必须大于0】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为201，提示【购买商品数量不能大于200】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型数量为1</t>
+  </si>
+  <si>
+    <t>商品类型数量为2</t>
+  </si>
+  <si>
+    <t>商品类型数量为10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型数量为19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型数量为20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型数量为21，提示【商品类型数量不能大于20】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类型数量为0，提示【xxx】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加单个商品的数量不能大于购物车单个商品的最大限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品栏里操作中的【X】后，购物车对应商品被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选商品，点击【删除选中商品】，所有选中商品均被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选【全选】后，所有商品被选中，点击【删除选中商品】，所有商品均被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的商品被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选中的商品未被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能小于最小值1，为1时-号不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过单个商品最大200或者达到库存量时+号不可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接编辑数量值范围在1-200.考虑库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为0时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为1时，-号不能用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量为2时，-号可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存&lt;200时，测试数据设置为库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存&gt;=200时，测试数据设置为200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存&lt;200时，测试数据设置为【1，库存量】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存&gt;=200时，测试数据设置为【1，200】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品图片或者名称描述跳转商品详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击商品图片跳转商品详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击名称描述跳转商品详情界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品对应价格应和加入购物车时一致
+小计：正确计算=单价+数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选择：N件商品，其中N为选中商品件数总和
+合计：购物车商品总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品对应价格应和加入购物车时一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品数量为1时，小计：正确计算=商品单价*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品类型数量为1时，小计:商品1小计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品数量&gt;1时(n)，小计：正确计算=商品单价*商品数量：商品单价*n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当商品数量&gt;1时(n)，小计：商品1小计【单价*数量】+商品2小计【单价*数量】…商品n小计【单价*数量】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -390,11 +598,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +705,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,13 +742,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,32 +1099,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -818,7 +1157,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -839,24 +1178,24 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -875,16 +1214,16 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -903,16 +1242,16 @@
       <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -931,22 +1270,22 @@
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
@@ -965,28 +1304,28 @@
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1015,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1027,21 +1366,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1049,28 +1388,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1079,7 +1418,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
@@ -1088,24 +1427,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1113,8 +1452,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
@@ -1130,4 +1469,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="14"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="14"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="14"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="14"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="14"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A46"/>
+    <mergeCell ref="B37:C41"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B18:B36"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>